--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280252.3367020093</v>
+        <v>-282953.9846045443</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.11693918766126</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663198</v>
+        <v>19.72734108435034</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>102.5735819801457</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>128.6440997147148</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>52.21594625443423</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>368.8527090291415</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>127.4035258241935</v>
       </c>
       <c r="G5" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>90.17431610216747</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>148.3089273128517</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.0133056736529</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>185.6279506608899</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>11.830884450382</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151374</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731851</v>
+        <v>129.9052178731852</v>
       </c>
       <c r="T8" t="n">
-        <v>191.1891487966109</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
         <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>160.0718349856656</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>28.47978795695863</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>101.0189251916198</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436605</v>
+        <v>94.29488917436608</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.56536036433992</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282943</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323794</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.89051046332428</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.09786070099042</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930954</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>122.6907501522955</v>
+        <v>223.1157139906646</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>2.277487234991298</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.2383528899813</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165.1975869426799</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>212.4077816457242</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>65.56423921895052</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892455</v>
+        <v>99.43007309479013</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>129.0096827405972</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856637</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773529</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>120.8326485140794</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>209.9229247978754</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>13.79222725775219</v>
       </c>
       <c r="T25" t="n">
-        <v>205.9682521389953</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>107.4021082756232</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>57.82449082152448</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>52.54490042790958</v>
       </c>
       <c r="H31" t="n">
-        <v>73.78417491007328</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>32.37373183919169</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>79.05856366754493</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>80.67842139643618</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>93.07916359105423</v>
       </c>
       <c r="H40" t="n">
-        <v>54.31367585848602</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899567</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>27.31547498186472</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.06198119183985</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.0172523312946</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>414.0172523312946</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148099</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262249</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262249</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262249</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262249</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262249</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262249</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097403</v>
+        <v>540.7559564928854</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097403</v>
+        <v>351.3361714764006</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>430.6039361998075</v>
+        <v>90.03616812153784</v>
       </c>
       <c r="C3" t="n">
-        <v>256.1509069186804</v>
+        <v>90.03616812153784</v>
       </c>
       <c r="D3" t="n">
-        <v>256.1509069186804</v>
+        <v>90.03616812153784</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>90.03616812153784</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>90.03616812153784</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.03616812153784</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.03616812153784</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140242</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198755</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198755</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198755</v>
+        <v>468.8757381545074</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198755</v>
+        <v>279.4559531380226</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198755</v>
+        <v>279.4559531380226</v>
       </c>
       <c r="X3" t="n">
-        <v>598.8192732198755</v>
+        <v>90.03616812153784</v>
       </c>
       <c r="Y3" t="n">
-        <v>598.8192732198755</v>
+        <v>90.03616812153784</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828974</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828974</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828974</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828974</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828974</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828974</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>709.3965921992916</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>725.346861488697</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>748.7753949309531</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828974</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828974</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828974</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828974</v>
+        <v>697.3589686102955</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1197.18993515947</v>
+        <v>1253.757183451918</v>
       </c>
       <c r="C5" t="n">
-        <v>1197.18993515947</v>
+        <v>1253.757183451918</v>
       </c>
       <c r="D5" t="n">
-        <v>838.9242365527191</v>
+        <v>895.4914848451672</v>
       </c>
       <c r="E5" t="n">
-        <v>466.3457425838893</v>
+        <v>895.4914848451672</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346858</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H5" t="n">
         <v>43.36919653809306</v>
@@ -4568,7 +4568,7 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
         <v>669.5878927711865</v>
@@ -4595,22 +4595,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U5" t="n">
-        <v>1914.852662567162</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V5" t="n">
-        <v>1583.789775223591</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.789775223591</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.789775223591</v>
+        <v>1253.757183451918</v>
       </c>
       <c r="Y5" t="n">
-        <v>1583.789775223591</v>
+        <v>1253.757183451918</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619.0496057289574</v>
+        <v>762.7029096104923</v>
       </c>
       <c r="C6" t="n">
-        <v>444.5965764478304</v>
+        <v>671.6177418305251</v>
       </c>
       <c r="D6" t="n">
-        <v>444.5965764478304</v>
+        <v>522.6833321692739</v>
       </c>
       <c r="E6" t="n">
-        <v>285.3591214423749</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="F6" t="n">
-        <v>138.8245634692599</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="G6" t="n">
-        <v>138.8245634692599</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4674,22 +4674,22 @@
         <v>1627.262386835205</v>
       </c>
       <c r="T6" t="n">
-        <v>1627.262386835205</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U6" t="n">
-        <v>1399.160796968469</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="V6" t="n">
-        <v>1249.35379968276</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="W6" t="n">
-        <v>995.1164429545584</v>
+        <v>1178.314708580979</v>
       </c>
       <c r="X6" t="n">
-        <v>787.2649427490255</v>
+        <v>970.4632083754461</v>
       </c>
       <c r="Y6" t="n">
-        <v>787.2649427490255</v>
+        <v>762.7029096104923</v>
       </c>
     </row>
     <row r="7">
@@ -4753,19 +4753,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>298.0536847439799</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U7" t="n">
-        <v>298.0536847439799</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W7" t="n">
-        <v>43.36919653809306</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="X7" t="n">
-        <v>43.36919653809306</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="Y7" t="n">
         <v>43.36919653809306</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>509.6006974458903</v>
+        <v>756.0137185833705</v>
       </c>
       <c r="C8" t="n">
-        <v>140.6381805054786</v>
+        <v>756.0137185833705</v>
       </c>
       <c r="D8" t="n">
-        <v>140.6381805054786</v>
+        <v>756.0137185833705</v>
       </c>
       <c r="E8" t="n">
-        <v>140.6381805054786</v>
+        <v>370.2254659851262</v>
       </c>
       <c r="F8" t="n">
-        <v>133.6926797562751</v>
+        <v>363.2799652359228</v>
       </c>
       <c r="G8" t="n">
-        <v>121.7422914225559</v>
+        <v>351.3295769022035</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7422914225559</v>
+        <v>44.34100425941057</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941072</v>
+        <v>44.34100425941057</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420301</v>
+        <v>156.8280559420291</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002249</v>
+        <v>376.1555054002229</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707948</v>
+        <v>685.1523625707921</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937551</v>
+        <v>1060.640340937547</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.81791573371</v>
+        <v>1446.817915733705</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659512</v>
+        <v>1798.139187659506</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284338</v>
+        <v>2063.482764284331</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228521</v>
+        <v>2214.571993228513</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970536</v>
+        <v>2217.050212970528</v>
       </c>
       <c r="S8" t="n">
-        <v>2085.83282117944</v>
+        <v>2085.832821179432</v>
       </c>
       <c r="T8" t="n">
-        <v>1892.712468859631</v>
+        <v>1875.835030499457</v>
       </c>
       <c r="U8" t="n">
-        <v>1639.108524755938</v>
+        <v>1622.231086395764</v>
       </c>
       <c r="V8" t="n">
-        <v>1639.108524755938</v>
+        <v>1291.168199052193</v>
       </c>
       <c r="W8" t="n">
-        <v>1286.339869485824</v>
+        <v>1291.168199052193</v>
       </c>
       <c r="X8" t="n">
-        <v>1286.339869485824</v>
+        <v>917.7024407911135</v>
       </c>
       <c r="Y8" t="n">
-        <v>896.2005375100121</v>
+        <v>756.0137185833705</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>527.4165516710657</v>
+        <v>795.8413152856751</v>
       </c>
       <c r="C9" t="n">
-        <v>527.4165516710657</v>
+        <v>767.0738527028886</v>
       </c>
       <c r="D9" t="n">
-        <v>378.4821420098144</v>
+        <v>618.1394430416374</v>
       </c>
       <c r="E9" t="n">
-        <v>378.4821420098144</v>
+        <v>458.9019880361819</v>
       </c>
       <c r="F9" t="n">
-        <v>276.4428236344409</v>
+        <v>312.3674300630669</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5883670618007</v>
+        <v>175.5129734904268</v>
       </c>
       <c r="H9" t="n">
-        <v>44.34100425941072</v>
+        <v>80.26561068803676</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941072</v>
+        <v>44.34100425941057</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113539</v>
+        <v>92.51967467113491</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154168</v>
+        <v>253.0195209154158</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572553</v>
+        <v>515.1539122572535</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449753</v>
+        <v>840.4092510449727</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738687</v>
+        <v>1188.681775738684</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074216</v>
+        <v>1485.063300074212</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566946</v>
+        <v>1703.602536566941</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257644</v>
+        <v>1799.771032257638</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285089</v>
+        <v>1799.771032257638</v>
       </c>
       <c r="S9" t="n">
-        <v>1769.119480285089</v>
+        <v>1661.206416030641</v>
       </c>
       <c r="T9" t="n">
-        <v>1574.495968838241</v>
+        <v>1661.206416030641</v>
       </c>
       <c r="U9" t="n">
-        <v>1346.395795893363</v>
+        <v>1661.206416030641</v>
       </c>
       <c r="V9" t="n">
-        <v>1111.24368766162</v>
+        <v>1426.054307798899</v>
       </c>
       <c r="W9" t="n">
-        <v>1111.24368766162</v>
+        <v>1171.816951070697</v>
       </c>
       <c r="X9" t="n">
-        <v>903.3921874560876</v>
+        <v>1171.816951070697</v>
       </c>
       <c r="Y9" t="n">
-        <v>695.6318886911338</v>
+        <v>964.0566523057432</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.2771871873176</v>
+        <v>61.4021259395361</v>
       </c>
       <c r="C10" t="n">
-        <v>44.34100425941072</v>
+        <v>61.4021259395361</v>
       </c>
       <c r="D10" t="n">
-        <v>44.34100425941072</v>
+        <v>61.4021259395361</v>
       </c>
       <c r="E10" t="n">
-        <v>44.34100425941072</v>
+        <v>61.4021259395361</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941072</v>
+        <v>61.4021259395361</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941072</v>
+        <v>61.4021259395361</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941072</v>
+        <v>61.4021259395361</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941072</v>
+        <v>61.4021259395361</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941072</v>
+        <v>44.34100425941057</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016772</v>
+        <v>95.74470838016725</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810366</v>
+        <v>191.4295496810357</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422668</v>
+        <v>295.5740818422654</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091258</v>
+        <v>405.099815709124</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712741</v>
+        <v>485.9514692712719</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139752</v>
+        <v>536.0720553139727</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139752</v>
+        <v>514.7610849089318</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139752</v>
+        <v>514.7610849089318</v>
       </c>
       <c r="S10" t="n">
-        <v>337.207237846202</v>
+        <v>514.7610849089318</v>
       </c>
       <c r="T10" t="n">
-        <v>337.207237846202</v>
+        <v>514.7610849089318</v>
       </c>
       <c r="U10" t="n">
-        <v>337.207237846202</v>
+        <v>514.7610849089318</v>
       </c>
       <c r="V10" t="n">
-        <v>337.207237846202</v>
+        <v>514.7610849089318</v>
       </c>
       <c r="W10" t="n">
-        <v>213.2771871873176</v>
+        <v>289.3916768375535</v>
       </c>
       <c r="X10" t="n">
-        <v>213.2771871873176</v>
+        <v>61.4021259395361</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.2771871873176</v>
+        <v>61.4021259395361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754457</v>
+        <v>2040.546330724785</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814045</v>
+        <v>1671.583813784373</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1313.318115177623</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>927.5298625793785</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194425</v>
+        <v>516.543957789771</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656955</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484045</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535295</v>
+        <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464064</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3874.582803639483</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926741</v>
+        <v>3874.582803639483</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048269</v>
+        <v>3874.582803639483</v>
       </c>
       <c r="V11" t="n">
-        <v>3072.821395088692</v>
+        <v>3543.519916295912</v>
       </c>
       <c r="W11" t="n">
-        <v>2720.052739818579</v>
+        <v>3190.751261025798</v>
       </c>
       <c r="X11" t="n">
-        <v>2720.052739818579</v>
+        <v>2817.285502764718</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818579</v>
+        <v>2427.146170788907</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626171</v>
+        <v>889.4740370626179</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599346</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861145</v>
+        <v>1546.994364450732</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.9017361535895</v>
+        <v>1003.287366026812</v>
       </c>
       <c r="C13" t="n">
-        <v>607.9017361535895</v>
+        <v>834.351183098905</v>
       </c>
       <c r="D13" t="n">
-        <v>607.9017361535895</v>
+        <v>684.2345436865693</v>
       </c>
       <c r="E13" t="n">
-        <v>459.9886425711964</v>
+        <v>536.3214501041762</v>
       </c>
       <c r="F13" t="n">
-        <v>313.098695073286</v>
+        <v>389.4315026062658</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>221.933519417454</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648144</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344809</v>
+        <v>710.5788654344814</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925584</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="T13" t="n">
-        <v>2056.743466925584</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="U13" t="n">
-        <v>1767.651773875035</v>
+        <v>1848.27127569226</v>
       </c>
       <c r="V13" t="n">
-        <v>1512.967285669148</v>
+        <v>1633.717960898599</v>
       </c>
       <c r="W13" t="n">
-        <v>1223.550115632187</v>
+        <v>1633.717960898599</v>
       </c>
       <c r="X13" t="n">
-        <v>995.5605647341699</v>
+        <v>1405.728410000582</v>
       </c>
       <c r="Y13" t="n">
-        <v>774.7679855906399</v>
+        <v>1184.935830857052</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803938</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327635</v>
+        <v>702.4944101284088</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>533.558227200502</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>383.4415877881661</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057731</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057731</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057731</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,13 +5434,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947398</v>
+        <v>1877.026663243043</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741511</v>
+        <v>1622.342175037156</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1332.925005000196</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806533</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630032</v>
+        <v>884.1428749586486</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327654</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048585</v>
+        <v>929.7309773356203</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048585</v>
+        <v>779.6143379232846</v>
       </c>
       <c r="E19" t="n">
-        <v>594.8179559048585</v>
+        <v>631.7012443408914</v>
       </c>
       <c r="F19" t="n">
-        <v>447.9280084069482</v>
+        <v>484.8112968429811</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578611</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000591</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797746</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1789.822296052218</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704553</v>
+        <v>1729.097755135314</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1501.108204237297</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630052</v>
+        <v>1280.315625093767</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307815</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>822.8075068028746</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>672.6908673905389</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>524.7777738081458</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704551</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561021</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,25 +6008,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591808</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>931.4710609784062</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2433.031540895662</v>
       </c>
       <c r="T25" t="n">
-        <v>2238.914344045922</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U25" t="n">
-        <v>1949.83911739012</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V25" t="n">
-        <v>1695.154629184233</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W25" t="n">
-        <v>1405.737459147272</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X25" t="n">
-        <v>1177.747908249255</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y25" t="n">
-        <v>956.9553291057244</v>
+        <v>931.4710609784062</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1889.844516861991</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2546.729326731942</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356194</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244367</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207407</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171302</v>
+        <v>984.5467179762948</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892233</v>
+        <v>815.6105350483879</v>
       </c>
       <c r="D31" t="n">
-        <v>564.5188827892233</v>
+        <v>665.4938956360521</v>
       </c>
       <c r="E31" t="n">
-        <v>564.5188827892233</v>
+        <v>517.580802053659</v>
       </c>
       <c r="F31" t="n">
-        <v>417.6289352913129</v>
+        <v>370.6908545557487</v>
       </c>
       <c r="G31" t="n">
-        <v>250.4328360061929</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473699</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="32">
@@ -6692,31 +6692,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171299</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C34" t="n">
-        <v>733.4550657171294</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D34" t="n">
-        <v>583.3384263047936</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E34" t="n">
-        <v>435.4253327224006</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473696</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703112</v>
+        <v>803.2707707770321</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703112</v>
+        <v>634.3345878491252</v>
       </c>
       <c r="D37" t="n">
-        <v>545.3854261579754</v>
+        <v>484.2179484367895</v>
       </c>
       <c r="E37" t="n">
-        <v>397.4723325755823</v>
+        <v>484.2179484367894</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>484.2179484367894</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.0218491516689</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.310017993867</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713841</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703112</v>
+        <v>984.9192356072718</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,16 +7205,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,19 +7254,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851667</v>
+        <v>801.6918836311991</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572598</v>
+        <v>632.7557007032922</v>
       </c>
       <c r="D40" t="n">
-        <v>377.655612744924</v>
+        <v>482.6390612909564</v>
       </c>
       <c r="E40" t="n">
-        <v>377.655612744924</v>
+        <v>334.7259677085633</v>
       </c>
       <c r="F40" t="n">
-        <v>230.7656652470139</v>
+        <v>187.8360202106529</v>
       </c>
       <c r="G40" t="n">
-        <v>230.7656652470139</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7345,7 +7345,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614388</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154064</v>
+        <v>983.3403484614388</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429801</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832662</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>915.1035305473703</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>746.1673476194634</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D46" t="n">
-        <v>596.0507082071276</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1376146247344</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F46" t="n">
-        <v>301.2476671268241</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.60761876116077</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>83.51390558015356</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.6343932392574</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>39.72986167810384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.6825818796773</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>186.754401294454</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>36.51445555167167</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>226.4057028288557</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>24.58839950885181</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>76.60007353871563</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>167.2340587438924</v>
       </c>
       <c r="T25" t="n">
-        <v>11.437198188293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>110.003342051665</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>194.3131525023035</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>112.9792378643593</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51053793615061</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>113.0473161837396</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194176</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>66.36248435538631</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.587414922129355</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>72.44497470121462</v>
       </c>
       <c r="H40" t="n">
-        <v>85.98103698773787</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992875</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>191.2691783702301</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>100.462157100429</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.663699106</v>
       </c>
       <c r="E2" t="n">
-        <v>274720.9666028985</v>
+        <v>274720.9666028987</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="J2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="K2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="M2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>302679.9748837524</v>
       </c>
-      <c r="L2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="O2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
         <v>302679.9748837522</v>
@@ -26369,13 +26369,13 @@
         <v>392510.2442861777</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264391</v>
+        <v>12262.85603264194</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674485</v>
+        <v>395943.9567674513</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704292</v>
+        <v>189308.2687704281</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.9447285446</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487776</v>
+        <v>91259.95686487775</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349950111</v>
+        <v>3074.44734994962</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931114</v>
+        <v>103409.2608931122</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202369</v>
+        <v>49839.57413202344</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607416</v>
+        <v>170817.8827607421</v>
       </c>
       <c r="E4" t="n">
         <v>15941.16541224543</v>
       </c>
       <c r="F4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="G4" t="n">
         <v>16046.58397189196</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="H4" t="n">
-        <v>16046.58397189206</v>
-      </c>
       <c r="I4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.583971892</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404178</v>
+        <v>86153.75444404161</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738573</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>-344021.6525318415</v>
       </c>
       <c r="D6" t="n">
-        <v>38656.17046167885</v>
+        <v>38656.17046168036</v>
       </c>
       <c r="E6" t="n">
-        <v>-222301.6406441811</v>
+        <v>-222522.7719581584</v>
       </c>
       <c r="F6" t="n">
-        <v>-3797.407682475881</v>
+        <v>-3832.145607910745</v>
       </c>
       <c r="G6" t="n">
-        <v>185510.8610879532</v>
+        <v>185476.1231625173</v>
       </c>
       <c r="H6" t="n">
-        <v>185510.8610879532</v>
+        <v>185476.1231625174</v>
       </c>
       <c r="I6" t="n">
-        <v>185510.8610879532</v>
+        <v>185476.1231625174</v>
       </c>
       <c r="J6" t="n">
-        <v>136445.9163594085</v>
+        <v>136411.1784339728</v>
       </c>
       <c r="K6" t="n">
-        <v>94250.9042230755</v>
+        <v>94216.16629763975</v>
       </c>
       <c r="L6" t="n">
-        <v>182436.4137380031</v>
+        <v>182401.6758125679</v>
       </c>
       <c r="M6" t="n">
-        <v>82101.6001948417</v>
+        <v>82066.86226940533</v>
       </c>
       <c r="N6" t="n">
-        <v>135671.2869559294</v>
+        <v>135636.5490304942</v>
       </c>
       <c r="O6" t="n">
-        <v>185510.8610879532</v>
+        <v>185476.1231625176</v>
       </c>
       <c r="P6" t="n">
-        <v>185510.8610879531</v>
+        <v>185476.1231625174</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573223</v>
+        <v>863.6234498573207</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.262553242634</v>
+        <v>554.2625532426321</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490088</v>
+        <v>969.2208239490099</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>305.2407236247797</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319638147</v>
+        <v>9.912785319636555</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576281</v>
+        <v>338.6177873576304</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1475965164708</v>
+        <v>12.14759651646886</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063748</v>
+        <v>414.9582707063778</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1475965164708</v>
+        <v>12.14759651646886</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063748</v>
+        <v>414.9582707063778</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1475965164708</v>
+        <v>12.14759651646886</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063748</v>
+        <v>414.9582707063778</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.6169024758193</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.404782905942</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>350.0037595941187</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>55.0714984752552</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27512,16 +27512,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>97.2196686953761</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,7 +27552,7 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2177245773853</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346029</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>13.07766104312026</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>279.472519917518</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>78.16360657708299</v>
@@ -27667,10 +27667,10 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>82.53418288614827</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,13 +27746,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>84.49165983657358</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27825,22 +27825,22 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>1.354513060649708</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>32.95670269120487</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9186869163649</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.627274291514</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>16.70866397656403</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>226.166103670388</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27932,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>144.2287110313571</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.05028720176405</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.5653603643398</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>30.34503645282965</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743399</v>
+        <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332408</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.0978607009902</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.269103131361</v>
+        <v>107.2691031313612</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
         <v>221.2914415359382</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>163.8322481842955</v>
+        <v>63.40728434592643</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-8.384404281969182e-13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753052</v>
+        <v>3.471853064753045</v>
       </c>
       <c r="H8" t="n">
-        <v>35.5561151994022</v>
+        <v>35.55611519940214</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788922</v>
+        <v>133.8486152788919</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545846</v>
+        <v>294.669189054584</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855814</v>
+        <v>441.6327292855805</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160176</v>
+        <v>547.8844525160167</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563198</v>
+        <v>609.6270194563186</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765494</v>
+        <v>619.4914219765483</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639112</v>
+        <v>584.9681830639101</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278202</v>
+        <v>499.2568105278193</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463514</v>
+        <v>374.9210726463507</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787941</v>
+        <v>218.0887900787937</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306025</v>
+        <v>79.1148517130601</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095649</v>
+        <v>15.19803679095646</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802441</v>
+        <v>0.2777482451802435</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296882</v>
+        <v>1.857605156296879</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213041</v>
+        <v>17.94055506213038</v>
       </c>
       <c r="I9" t="n">
-        <v>63.9570196356602</v>
+        <v>63.95701963566008</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148734</v>
+        <v>175.5029503148731</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867645</v>
+        <v>299.962495786764</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564787</v>
+        <v>403.336593256478</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722406</v>
+        <v>470.6747801722397</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668807</v>
+        <v>483.1321410668799</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510392</v>
+        <v>441.9715215510384</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423406</v>
+        <v>354.7211109423399</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230897</v>
+        <v>237.1216687230893</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111345</v>
+        <v>115.3344675111343</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911092</v>
+        <v>34.50420103911085</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442253</v>
+        <v>7.48745236244224</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458475</v>
+        <v>0.1222108655458473</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037794</v>
+        <v>1.557353762037791</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066331</v>
+        <v>13.84629072066328</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291841</v>
+        <v>46.83387495291831</v>
       </c>
       <c r="J10" t="n">
-        <v>110.104910976072</v>
+        <v>110.1049109760718</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258455</v>
+        <v>180.9361916258452</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306008</v>
+        <v>231.5360311306004</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801607</v>
+        <v>244.1222810801603</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762019</v>
+        <v>238.3175988762014</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833057</v>
+        <v>220.1248753833053</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377346</v>
+        <v>188.3548586377342</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284556</v>
+        <v>130.4071409284554</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580844</v>
+        <v>70.02428824580831</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387682</v>
+        <v>27.14042874387677</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343301</v>
+        <v>6.654147892343288</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842523</v>
+        <v>0.08494656883842508</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>250.19804513143</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>282.4162185798842</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
         <v>0.1701284769643799</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,7 +32561,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>305.5427724581384</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>152.0754244981388</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>483.3274636075166</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278983</v>
+        <v>113.6232845278977</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406008</v>
+        <v>221.5428782406</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460304</v>
+        <v>312.1180375460295</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290471</v>
+        <v>379.2807862290459</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799585</v>
+        <v>390.0783583799574</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422244</v>
+        <v>354.8699716422234</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725506</v>
+        <v>268.0238147725497</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719019</v>
+        <v>152.6153827719012</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661967</v>
+        <v>2.50325226466154</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820674</v>
+        <v>48.6653236482064</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124055</v>
+        <v>162.121056812405</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766045</v>
+        <v>264.7822134766038</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502222</v>
+        <v>328.5407462502214</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835474</v>
+        <v>351.7904289835466</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065948</v>
+        <v>299.375277106594</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280104</v>
+        <v>220.7467035280097</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706821</v>
+        <v>97.13989463706775</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.9229334553101</v>
+        <v>51.92293345530979</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936252</v>
+        <v>96.65135484936209</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325557</v>
+        <v>105.1964971325552</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109687</v>
+        <v>110.6320544109682</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146296</v>
+        <v>81.66833693146253</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858698</v>
+        <v>50.62685458858661</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>108.0640112094117</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>151.0745064965509</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655345</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,7 +36209,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899076</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.39592053417488</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>340.7312191630721</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
